--- a/config_debug/act_026_xrcdj_config.xlsx
+++ b/config_debug/act_026_xrcdj_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_0818\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="118">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -392,10 +392,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>task_content</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1000004</t>
     </r>
@@ -594,6 +590,46 @@
   <si>
     <t>id|任务ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计登陆2天解锁/升级为VIP1立即解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计登陆5天解锁/升级为VIP1立即解锁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_key|所需道具key</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xrcdj_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>box_id|box_exchange_server 的id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -995,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1007,12 +1043,13 @@
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1026,16 +1063,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1049,12 +1089,17 @@
         <v>17</v>
       </c>
       <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" t="s">
+      <c r="F2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1067,13 +1112,20 @@
       <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1086,13 +1138,20 @@
       <c r="D4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1105,6 +1164,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1117,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1132,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1143,10 +1203,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1154,10 +1214,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1165,10 +1225,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1176,10 +1236,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1187,10 +1247,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1198,10 +1258,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1209,10 +1269,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1220,10 +1280,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1231,10 +1291,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1242,10 +1302,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1259,7 +1319,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C14" sqref="C14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1309,16 +1369,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>20</v>
+      <c r="E2" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -1334,13 +1394,12 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>21</v>
+      <c r="E3" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
@@ -1350,18 +1409,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -1371,18 +1429,17 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -1392,18 +1449,17 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -1413,18 +1469,17 @@
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
@@ -1434,18 +1489,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -1455,18 +1509,17 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
@@ -1476,18 +1529,17 @@
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -1497,18 +1549,17 @@
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
@@ -1518,16 +1569,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -1538,13 +1589,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -1558,18 +1609,17 @@
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5"/>
+        <v>0</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="1"/>
@@ -1585,18 +1635,17 @@
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5"/>
+        <v>0</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="1"/>
@@ -1800,14 +1849,545 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F15"/>
+      <selection activeCell="C14" sqref="C14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="36.75" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
+    <col min="9" max="9" width="28.25" customWidth="1"/>
+    <col min="10" max="10" width="24.25" customWidth="1"/>
+    <col min="11" max="11" width="25.125" customWidth="1"/>
+    <col min="12" max="12" width="23.75" customWidth="1"/>
+    <col min="13" max="13" width="21.75" customWidth="1"/>
+    <col min="14" max="15" width="24.25" customWidth="1"/>
+    <col min="16" max="16" width="21.125" customWidth="1"/>
+    <col min="17" max="20" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="2"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="2"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="2"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="2"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="2"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
     <col min="5" max="5" width="21.625" customWidth="1"/>
     <col min="6" max="6" width="19.25" customWidth="1"/>
@@ -1851,16 +2431,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>44</v>
+      <c r="E2" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -1871,13 +2451,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
+      <c r="E3" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -1892,18 +2472,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
@@ -1913,18 +2492,17 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -1934,18 +2512,17 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -1955,18 +2532,17 @@
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
@@ -1976,18 +2552,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -1997,18 +2572,17 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
@@ -2018,18 +2592,17 @@
         <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -2039,18 +2612,17 @@
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
@@ -2060,16 +2632,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -2080,13 +2652,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -2100,18 +2672,17 @@
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5"/>
+        <v>0</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="1"/>
@@ -2127,18 +2698,17 @@
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5"/>
+        <v>0</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="1"/>
@@ -2153,7 +2723,6 @@
       <c r="D16" s="1"/>
       <c r="E16" s="8"/>
       <c r="F16" s="2"/>
-      <c r="K16" s="5"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="1"/>
@@ -2168,7 +2737,6 @@
       <c r="D17" s="1"/>
       <c r="E17" s="8"/>
       <c r="F17" s="2"/>
-      <c r="K17" s="5"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="1"/>
@@ -2335,546 +2903,4 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q47"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="36.75" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
-    <col min="8" max="8" width="17.625" customWidth="1"/>
-    <col min="9" max="9" width="28.25" customWidth="1"/>
-    <col min="10" max="10" width="24.25" customWidth="1"/>
-    <col min="11" max="11" width="25.125" customWidth="1"/>
-    <col min="12" max="12" width="23.75" customWidth="1"/>
-    <col min="13" max="13" width="21.75" customWidth="1"/>
-    <col min="14" max="15" width="24.25" customWidth="1"/>
-    <col min="16" max="16" width="21.125" customWidth="1"/>
-    <col min="17" max="20" width="12.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>7</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>11</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="2"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="2"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="2"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="2"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="2"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="2"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I47" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/config_debug/act_026_xrcdj_config.xlsx
+++ b/config_debug/act_026_xrcdj_config.xlsx
@@ -1034,7 +1034,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1319,7 +1319,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F15"/>
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>36</v>
@@ -1386,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>40</v>
@@ -1406,7 +1406,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>11701</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>40</v>
@@ -1426,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>11702</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>69</v>
@@ -1446,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>43</v>
@@ -1466,7 +1466,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>6</v>
+        <v>11703</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>41</v>
@@ -1486,7 +1486,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>7</v>
+        <v>11704</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>42</v>
@@ -1506,7 +1506,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>35</v>
@@ -1526,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>9</v>
+        <v>11705</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>42</v>
@@ -1546,7 +1546,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>10</v>
+        <v>11706</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>39</v>
@@ -1566,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>11</v>
+        <v>11707</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>74</v>
@@ -1586,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>34</v>
@@ -1606,7 +1606,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>13</v>
+        <v>11708</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>37</v>
@@ -1632,7 +1632,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>14</v>
+        <v>11709</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>37</v>
@@ -1849,7 +1849,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F15"/>
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1897,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>73</v>
@@ -1917,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>79</v>
@@ -1937,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>11710</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>70</v>
@@ -1957,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>11711</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>71</v>
@@ -1977,7 +1977,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>76</v>
@@ -1997,7 +1997,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>6</v>
+        <v>11712</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>72</v>
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>7</v>
+        <v>11713</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>75</v>
@@ -2037,7 +2037,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>78</v>
@@ -2057,7 +2057,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>9</v>
+        <v>11714</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>38</v>
@@ -2077,7 +2077,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>10</v>
+        <v>11715</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>75</v>
@@ -2097,7 +2097,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>11</v>
+        <v>11716</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>37</v>
@@ -2117,7 +2117,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>68</v>
@@ -2137,7 +2137,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>13</v>
+        <v>11717</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>77</v>
@@ -2163,7 +2163,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>14</v>
+        <v>11718</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>77</v>
@@ -2380,7 +2380,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>43</v>
@@ -2448,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>71</v>
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>3</v>
+        <v>11719</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>81</v>
@@ -2489,7 +2489,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>11720</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>83</v>
@@ -2509,7 +2509,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>43</v>
@@ -2529,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4">
-        <v>6</v>
+        <v>11721</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>83</v>
@@ -2549,7 +2549,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4">
-        <v>7</v>
+        <v>11722</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>84</v>
@@ -2569,7 +2569,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>80</v>
@@ -2589,7 +2589,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>9</v>
+        <v>11723</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>84</v>
@@ -2609,7 +2609,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>10</v>
+        <v>11724</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>84</v>
@@ -2629,7 +2629,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>11</v>
+        <v>11725</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>82</v>
@@ -2649,7 +2649,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>34</v>
@@ -2669,7 +2669,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
-        <v>13</v>
+        <v>11726</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>82</v>
@@ -2695,7 +2695,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
-        <v>14</v>
+        <v>11727</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>82</v>

--- a/config_debug/act_026_xrcdj_config.xlsx
+++ b/config_debug/act_026_xrcdj_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="award2|配置" sheetId="9" r:id="rId4"/>
     <sheet name="award3|配置" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -317,9 +317,6 @@
     <t>100元话费</t>
   </si>
   <si>
-    <t>80000福利券</t>
-  </si>
-  <si>
     <t>activity_icon_gift123_500jdk</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -630,6 +627,10 @@
   <si>
     <t>39</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>8万福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1063,13 +1064,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>10</v>
@@ -1090,10 +1091,10 @@
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -1113,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>15</v>
@@ -1139,13 +1140,13 @@
         <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>16</v>
@@ -1177,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1192,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1203,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1214,10 +1215,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1225,10 +1226,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1236,10 +1237,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1247,10 +1248,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1258,10 +1259,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1269,10 +1270,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1280,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1291,10 +1292,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1302,10 +1303,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1430,7 @@
         <v>11702</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1569,7 +1570,7 @@
         <v>11707</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1900,7 +1901,7 @@
         <v>-1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1920,7 +1921,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1940,7 +1941,7 @@
         <v>11710</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1960,7 +1961,7 @@
         <v>11711</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1980,7 +1981,7 @@
         <v>-1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -2000,7 +2001,7 @@
         <v>11712</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -2020,7 +2021,7 @@
         <v>11713</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2040,7 +2041,7 @@
         <v>-1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2080,7 +2081,7 @@
         <v>11715</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -2120,7 +2121,7 @@
         <v>-1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -2140,7 +2141,7 @@
         <v>11717</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -2166,7 +2167,7 @@
         <v>11718</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -2379,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2451,7 +2452,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2472,7 +2473,7 @@
         <v>11719</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2492,7 +2493,7 @@
         <v>11720</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2532,7 +2533,7 @@
         <v>11721</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -2552,7 +2553,7 @@
         <v>11722</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -2572,7 +2573,7 @@
         <v>-1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -2592,7 +2593,7 @@
         <v>11723</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -2612,7 +2613,7 @@
         <v>11724</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -2632,7 +2633,7 @@
         <v>11725</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -2658,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -2672,7 +2673,7 @@
         <v>11726</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -2698,7 +2699,7 @@
         <v>11727</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>

--- a/config_debug/act_026_xrcdj_config.xlsx
+++ b/config_debug/act_026_xrcdj_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="119">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -210,7 +210,134 @@
     <t>5000福利券</t>
   </si>
   <si>
-    <t>ty_icon_flq5</t>
+    <t>ty_icon_jb_2498y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_198y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_98y</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_98y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_18y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_50y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8元话费</t>
+  </si>
+  <si>
+    <t>6福利券</t>
+  </si>
+  <si>
+    <t>8福利券</t>
+  </si>
+  <si>
+    <t>10福利券</t>
+  </si>
+  <si>
+    <t>20000金币</t>
+  </si>
+  <si>
+    <t>30福利券</t>
+  </si>
+  <si>
+    <t>4万金币</t>
+  </si>
+  <si>
+    <t>50福利券</t>
+  </si>
+  <si>
+    <t>60福利券</t>
+  </si>
+  <si>
+    <t>100万金币</t>
+  </si>
+  <si>
+    <t>8000福利券</t>
+  </si>
+  <si>
+    <t>500元京东卡</t>
+  </si>
+  <si>
+    <t>20福利券</t>
+  </si>
+  <si>
+    <t>40福利券</t>
+  </si>
+  <si>
+    <t>80福利券</t>
+  </si>
+  <si>
+    <t>100福利券</t>
+  </si>
+  <si>
+    <t>120福利券</t>
+  </si>
+  <si>
+    <t>150福利券</t>
+  </si>
+  <si>
+    <t>160福利券</t>
+  </si>
+  <si>
+    <t>170福利券</t>
+  </si>
+  <si>
+    <t>20元话费</t>
+  </si>
+  <si>
+    <t>50元话费</t>
+  </si>
+  <si>
+    <t>100元话费</t>
+  </si>
+  <si>
+    <t>activity_icon_gift123_500jdk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_2498y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_98y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -218,29 +345,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_jb_2498y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_198y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_98y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_98y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_18y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_50y</t>
+    <t>ty_icon_flq3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -248,84 +353,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>8元话费</t>
-  </si>
-  <si>
-    <t>6福利券</t>
-  </si>
-  <si>
-    <t>8福利券</t>
-  </si>
-  <si>
-    <t>10福利券</t>
-  </si>
-  <si>
-    <t>20000金币</t>
-  </si>
-  <si>
-    <t>30福利券</t>
-  </si>
-  <si>
-    <t>4万金币</t>
-  </si>
-  <si>
-    <t>50福利券</t>
-  </si>
-  <si>
-    <t>60福利券</t>
-  </si>
-  <si>
-    <t>100万金币</t>
-  </si>
-  <si>
-    <t>8000福利券</t>
-  </si>
-  <si>
-    <t>500元京东卡</t>
-  </si>
-  <si>
-    <t>20福利券</t>
-  </si>
-  <si>
-    <t>40福利券</t>
-  </si>
-  <si>
-    <t>80福利券</t>
-  </si>
-  <si>
-    <t>100福利券</t>
-  </si>
-  <si>
-    <t>120福利券</t>
-  </si>
-  <si>
-    <t>150福利券</t>
-  </si>
-  <si>
-    <t>160福利券</t>
-  </si>
-  <si>
-    <t>170福利券</t>
-  </si>
-  <si>
-    <t>20元话费</t>
-  </si>
-  <si>
-    <t>50元话费</t>
-  </si>
-  <si>
-    <t>100元话费</t>
-  </si>
-  <si>
-    <t>activity_icon_gift123_500jdk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
+    <t>com_award_icon_hfsp</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -333,55 +361,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_2498y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_98y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_flq2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -630,6 +610,30 @@
   </si>
   <si>
     <t>8万福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_hfsp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1064,13 +1068,13 @@
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>10</v>
@@ -1091,10 +1095,10 @@
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -1114,13 +1118,13 @@
         <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>15</v>
@@ -1140,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>16</v>
@@ -1178,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1193,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1204,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1215,10 +1219,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1226,10 +1230,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1237,10 +1241,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1248,10 +1252,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1259,10 +1263,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1270,10 +1274,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1281,10 +1285,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1292,10 +1296,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1303,10 +1307,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1324,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1370,7 +1374,7 @@
         <v>-1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1390,7 +1394,7 @@
         <v>-1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -1410,7 +1414,7 @@
         <v>11701</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1430,7 +1434,7 @@
         <v>11702</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -1450,7 +1454,7 @@
         <v>-1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1470,7 +1474,7 @@
         <v>11703</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1490,7 +1494,7 @@
         <v>11704</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1510,7 +1514,7 @@
         <v>-1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1530,7 +1534,7 @@
         <v>11705</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1550,7 +1554,7 @@
         <v>11706</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1570,7 +1574,7 @@
         <v>11707</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1590,7 +1594,7 @@
         <v>-1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1610,7 +1614,7 @@
         <v>11708</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1636,7 +1640,7 @@
         <v>11709</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1850,7 +1854,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1901,13 +1905,13 @@
         <v>-1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -1921,13 +1925,13 @@
         <v>-1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -1941,7 +1945,7 @@
         <v>11710</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -1961,13 +1965,13 @@
         <v>11711</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -1981,7 +1985,7 @@
         <v>-1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -2001,13 +2005,13 @@
         <v>11712</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -2021,13 +2025,13 @@
         <v>11713</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2041,13 +2045,13 @@
         <v>-1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2061,13 +2065,13 @@
         <v>11714</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -2081,13 +2085,13 @@
         <v>11715</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -2101,13 +2105,13 @@
         <v>11716</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2121,13 +2125,13 @@
         <v>-1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -2141,13 +2145,13 @@
         <v>11717</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2167,13 +2171,13 @@
         <v>11718</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2380,8 +2384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2432,13 +2436,13 @@
         <v>-1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -2452,13 +2456,13 @@
         <v>-1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -2473,13 +2477,13 @@
         <v>11719</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -2493,13 +2497,13 @@
         <v>11720</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -2513,13 +2517,13 @@
         <v>-1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -2533,13 +2537,13 @@
         <v>11721</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2">
         <v>0</v>
@@ -2553,13 +2557,13 @@
         <v>11722</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -2573,13 +2577,13 @@
         <v>-1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -2593,13 +2597,13 @@
         <v>11723</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -2613,13 +2617,13 @@
         <v>11724</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -2633,13 +2637,13 @@
         <v>11725</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
@@ -2653,13 +2657,13 @@
         <v>-1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -2673,13 +2677,13 @@
         <v>11726</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2699,13 +2703,13 @@
         <v>11727</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>

--- a/config_debug/act_026_xrcdj_config.xlsx
+++ b/config_debug/act_026_xrcdj_config.xlsx
@@ -630,10 +630,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1000元京东卡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>2000福利券</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -643,6 +639,10 @@
   </si>
   <si>
     <t>5000福利券</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>千元京东卡</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2394,7 +2394,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2451,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
@@ -2526,13 +2526,13 @@
         <v>-1</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -2672,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
